--- a/params_BC_synthetic.xlsx
+++ b/params_BC_synthetic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DAAF0D-3145-4CEA-BE7C-94FC2523E327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC772377-6308-46CE-B885-BE4CD2444C98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="171">
   <si>
     <t>val</t>
   </si>
@@ -540,6 +540,12 @@
   </si>
   <si>
     <t>Half of the reporting limit from the logger (0.5 is lowest value)</t>
+  </si>
+  <si>
+    <t>vert_flow</t>
+  </si>
+  <si>
+    <t>Is the flow vertical? Boolean</t>
   </si>
 </sst>
 </file>
@@ -960,8 +966,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1967,6 +1973,15 @@
       <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>170</v>
+      </c>
       <c r="I73" s="7"/>
       <c r="J73" s="9"/>
       <c r="K73" s="4"/>

--- a/params_BC_synthetic.xlsx
+++ b/params_BC_synthetic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC772377-6308-46CE-B885-BE4CD2444C98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016B889C-DFE4-49DB-A3C1-D6480E1710BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
@@ -317,12 +317,6 @@
     <t>Urx</t>
   </si>
   <si>
-    <t>Qinf_91</t>
-  </si>
-  <si>
-    <t>m³/h, Infiltration from ponding zone to filter zone</t>
-  </si>
-  <si>
     <t>m/h Sediment deposition velocity</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
     <t>If_sw</t>
   </si>
   <si>
-    <t>Placeholder, same as Ifw</t>
-  </si>
-  <si>
     <t>BC_Depth_Curve</t>
   </si>
   <si>
@@ -494,15 +485,9 @@
     <t>Calibrated 55.0416069</t>
   </si>
   <si>
-    <t>Calibrated with dispersivity for bromide = 0.76312825</t>
-  </si>
-  <si>
     <t>Typical value for S. Ontario silty soil https://wiki.sustainabletechnologies.ca/index.php?title=Low_permeability_soils&amp;mobileaction=toggle_view_desktop 3.3e-3, calibrated from flows</t>
   </si>
   <si>
-    <t>Calibrated value from flows 0.23750061</t>
-  </si>
-  <si>
     <t>m/h Pore water side MTC for water/soil transfer 1e-5 base</t>
   </si>
   <si>
@@ -545,13 +530,31 @@
     <t>vert_flow</t>
   </si>
   <si>
-    <t>Is the flow vertical? Boolean</t>
+    <t>immobmobfac</t>
+  </si>
+  <si>
+    <t>Calibrated with Kf using flows 0.30349817</t>
+  </si>
+  <si>
+    <t>Is the flow vertical? 1 or 0</t>
+  </si>
+  <si>
+    <t>Calibrated value from flows 0.38597442</t>
+  </si>
+  <si>
+    <t>1mm</t>
+  </si>
+  <si>
+    <t>BC Ponding areas at the volumes above</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -622,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -647,6 +650,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,8 +972,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -975,10 +981,11 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -992,7 +999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1004,7 +1011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1048,22 +1055,21 @@
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11">
-        <f>0.0000294*60</f>
-        <v>1.7639999999999999E-3</v>
+      <c r="B7" s="12">
+        <v>0.63343000000000005</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F7" s="1">
         <v>8.0580902099999996</v>
@@ -1074,187 +1080,186 @@
       <c r="H7" s="3">
         <v>2.6689209800000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="12">
+        <v>0.63343448000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>8.3144597999999998</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>81</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>6.5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <f>0.00025*3600</f>
         <v>0.9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>-0.12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>-0.12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>96485.332890000005</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>0.3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>0.7</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>1.82E-3</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.72</v>
+        <v>1.82E-3</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>2.3300000000000001E-2</v>
+        <v>0.72</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1262,13 +1267,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>5.67E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1276,13 +1281,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="B23">
-        <v>0.2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1290,13 +1295,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B24">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1304,80 +1309,80 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1E-3</v>
+        <v>74</v>
+      </c>
+      <c r="B26">
+        <v>0.1</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B27" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>1E-3</v>
       </c>
       <c r="C27" t="s">
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="B28" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29">
-        <v>0.2475</v>
+        <v>48</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.19</v>
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>0.2475</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
         <v>59</v>
@@ -1385,13 +1390,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
-        <v>8.7000000000000001E-4</v>
+        <v>0.19</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
         <v>59</v>
@@ -1399,13 +1404,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1">
-        <v>8.05E-8</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
@@ -1413,13 +1418,13 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1">
-        <v>2.31E-4</v>
+        <v>8.05E-8</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
         <v>59</v>
@@ -1427,57 +1432,57 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.31E-4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>76</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
-      <c r="A35" t="s">
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
         <f>0.035/24</f>
         <v>1.4583333333333334E-3</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>79</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1">
-        <v>200000</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>65</v>
@@ -1485,88 +1490,90 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" s="1">
-        <v>1.5</v>
+        <v>200000</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.1525</v>
+        <v>73</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3.52</v>
+        <v>85</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.14399999999999999</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1">
-        <v>0.03</v>
+        <v>3.52</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" s="1">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
         <v>59</v>
@@ -1574,13 +1581,13 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" s="1">
-        <v>4.6000000000000002E-8</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
         <v>59</v>
@@ -1588,13 +1595,13 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1">
-        <v>1.0999999999999999E-8</v>
+        <v>4.6000000000000002E-8</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
         <v>59</v>
@@ -1602,19 +1609,21 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47">
-        <f>0.00001</f>
-        <v>1.0000000000000001E-5</v>
+        <v>93</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.0999999999999999E-8</v>
       </c>
       <c r="C47" t="s">
         <v>95</v>
       </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48">
         <v>0.2475</v>
@@ -1623,7 +1632,7 @@
         <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -1639,13 +1648,13 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -1661,13 +1670,13 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -1683,65 +1692,68 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B52" s="3">
-        <v>0.43885155999999997</v>
+        <v>0.38597441999999998</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B53" s="1">
         <v>360</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="3">
-        <v>0.23394123999999999</v>
+        <v>135</v>
+      </c>
+      <c r="B54" s="11">
+        <v>8.8584400000000004E-3</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B55" s="3">
         <v>0.23394123999999999</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="8"/>
@@ -1750,207 +1762,210 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1">
-        <v>2</v>
+        <v>0.23394123999999999</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57">
         <v>0.15</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B58">
         <v>1.3</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B59">
         <v>0.5</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B60">
         <v>0.8</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B61">
         <v>0.21</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B62">
         <v>0.05</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B63">
         <v>0.21</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B64" s="1">
         <f>B65/10</f>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B65" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B66" s="1">
         <v>1E-3</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B67">
         <v>0.1</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B68">
         <v>0.25</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B69" s="3">
-        <v>21.328125</v>
+        <v>15.058877799999999</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E69" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="H69">
+        <v>18.254071249999999</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B71">
         <v>0.6</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="6"/>
@@ -1959,13 +1974,13 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B72">
         <v>0.8</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="8"/>
@@ -1974,13 +1989,13 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>169</v>
-      </c>
-      <c r="B73" t="b">
+        <v>164</v>
+      </c>
+      <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="9"/>

--- a/params_BC_synthetic.xlsx
+++ b/params_BC_synthetic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016B889C-DFE4-49DB-A3C1-D6480E1710BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E63A938-0DD5-4470-8361-F20829E7EC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="173">
   <si>
     <t>val</t>
   </si>
@@ -546,6 +546,12 @@
   </si>
   <si>
     <t>BC Ponding areas at the volumes above</t>
+  </si>
+  <si>
+    <t>k_fs</t>
+  </si>
+  <si>
+    <t>Turnover rate for volume in "apparent free space" at equilibrium with soil solution. Can range between 8 - 25%, default is 20%</t>
   </si>
 </sst>
 </file>
@@ -972,8 +978,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2003,6 +2009,18 @@
       <c r="L73" s="4"/>
     </row>
     <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
       <c r="I74" s="5"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
